--- a/ArcticFox2024.xlsx
+++ b/ArcticFox2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="199">
   <si>
     <t>Sep</t>
   </si>
@@ -585,6 +585,42 @@
   </si>
   <si>
     <t>MPB-KÖL</t>
+  </si>
+  <si>
+    <t>SEP0228264</t>
+  </si>
+  <si>
+    <t>SEP0228263</t>
+  </si>
+  <si>
+    <t>SEP0279425</t>
+  </si>
+  <si>
+    <t>SEP0279423</t>
+  </si>
+  <si>
+    <t>SEP0228262</t>
+  </si>
+  <si>
+    <t>SEP0279421</t>
+  </si>
+  <si>
+    <t>SEP0279422</t>
+  </si>
+  <si>
+    <t>SEP0279424</t>
+  </si>
+  <si>
+    <t>SEP0279420</t>
+  </si>
+  <si>
+    <t>SEP0228265</t>
+  </si>
+  <si>
+    <t>SEP0228266</t>
+  </si>
+  <si>
+    <t>SEP0228267</t>
   </si>
 </sst>
 </file>
@@ -906,19 +942,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D181"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181:D193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -952,7 +988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -969,7 +1005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1003,7 +1039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,7 +1090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1141,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1139,7 +1175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,7 +1192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1173,7 +1209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1190,7 +1226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1241,7 +1277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1275,7 +1311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1292,7 +1328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -1309,7 +1345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1326,7 +1362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1343,7 +1379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1360,7 +1396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1377,7 +1413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1445,7 +1481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -1479,7 +1515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -1496,7 +1532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1513,7 +1549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1530,7 +1566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -1547,7 +1583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1564,7 +1600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1581,7 +1617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -1598,7 +1634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -1615,7 +1651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -1632,7 +1668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -1649,7 +1685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -1666,7 +1702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -1683,7 +1719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -1700,7 +1736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -1717,7 +1753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -1734,7 +1770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -1751,7 +1787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -1768,7 +1804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -1785,7 +1821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -1802,7 +1838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -1819,7 +1855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -1836,7 +1872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -1853,7 +1889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -1870,7 +1906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -1887,7 +1923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -1904,7 +1940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -1921,7 +1957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -1938,7 +1974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -1955,7 +1991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -1972,7 +2008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -1989,7 +2025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
@@ -2006,7 +2042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -2023,7 +2059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
@@ -2040,7 +2076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
@@ -2057,7 +2093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -2074,7 +2110,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
@@ -2091,7 +2127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -2108,7 +2144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
@@ -2125,7 +2161,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
@@ -2142,7 +2178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
@@ -2159,7 +2195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
@@ -2176,7 +2212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -2193,7 +2229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -2210,7 +2246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -2227,7 +2263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -2244,7 +2280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -2261,7 +2297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -2278,7 +2314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -2295,7 +2331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -2312,7 +2348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -2329,7 +2365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -2346,7 +2382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -2363,7 +2399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -2380,7 +2416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -2397,7 +2433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -2414,7 +2450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -2431,7 +2467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -2448,7 +2484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -2465,7 +2501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -2482,7 +2518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -2499,7 +2535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -2516,7 +2552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -2533,7 +2569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -2550,7 +2586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -2567,7 +2603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -2584,7 +2620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -2601,7 +2637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -2618,7 +2654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -2635,7 +2671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -2652,7 +2688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -2669,7 +2705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -2686,7 +2722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -2703,7 +2739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -2720,7 +2756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -2737,7 +2773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -2754,7 +2790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -2771,7 +2807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -2788,7 +2824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -2805,7 +2841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -2822,7 +2858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -2839,7 +2875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -2856,7 +2892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -2873,7 +2909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -2890,7 +2926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -2907,7 +2943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -2924,7 +2960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -2941,7 +2977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -2958,7 +2994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -2975,7 +3011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -2992,7 +3028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -3009,7 +3045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -3026,7 +3062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -3043,7 +3079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -3060,7 +3096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -3077,7 +3113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -3094,7 +3130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -3111,7 +3147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -3128,7 +3164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -3145,7 +3181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -3162,7 +3198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -3179,7 +3215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -3196,7 +3232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -3213,7 +3249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -3230,7 +3266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -3247,7 +3283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -3264,7 +3300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -3281,7 +3317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -3298,7 +3334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -3315,7 +3351,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -3332,7 +3368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -3349,7 +3385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -3366,7 +3402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -3383,7 +3419,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -3400,7 +3436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -3417,7 +3453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -3434,7 +3470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -3451,7 +3487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -3468,7 +3504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -3485,7 +3521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -3502,7 +3538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -3519,7 +3555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -3536,7 +3572,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -3553,7 +3589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -3570,7 +3606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -3587,7 +3623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -3604,7 +3640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -3621,7 +3657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -3638,7 +3674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -3655,7 +3691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -3672,7 +3708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -3689,7 +3725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -3706,7 +3742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -3723,7 +3759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -3740,7 +3776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -3757,7 +3793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -3774,7 +3810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -3791,7 +3827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -3808,7 +3844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -3825,7 +3861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -3842,7 +3878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -3859,7 +3895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -3876,7 +3912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -3893,7 +3929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -3910,7 +3946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -3927,7 +3963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -3944,7 +3980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -3961,7 +3997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -3978,7 +4014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -3992,6 +4028,210 @@
         <v>186</v>
       </c>
       <c r="E181" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182">
+        <v>5500143583</v>
+      </c>
+      <c r="C182">
+        <v>2625</v>
+      </c>
+      <c r="D182" t="s">
+        <v>186</v>
+      </c>
+      <c r="E182" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183">
+        <v>5500143583</v>
+      </c>
+      <c r="C183">
+        <v>2625</v>
+      </c>
+      <c r="D183" t="s">
+        <v>186</v>
+      </c>
+      <c r="E183" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184">
+        <v>5500143583</v>
+      </c>
+      <c r="C184">
+        <v>2625</v>
+      </c>
+      <c r="D184" t="s">
+        <v>186</v>
+      </c>
+      <c r="E184" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185">
+        <v>5500143583</v>
+      </c>
+      <c r="C185">
+        <v>2625</v>
+      </c>
+      <c r="D185" t="s">
+        <v>186</v>
+      </c>
+      <c r="E185" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186">
+        <v>5500143583</v>
+      </c>
+      <c r="C186">
+        <v>2625</v>
+      </c>
+      <c r="D186" t="s">
+        <v>186</v>
+      </c>
+      <c r="E186" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187">
+        <v>5500143583</v>
+      </c>
+      <c r="C187">
+        <v>2625</v>
+      </c>
+      <c r="D187" t="s">
+        <v>186</v>
+      </c>
+      <c r="E187" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188">
+        <v>5500143583</v>
+      </c>
+      <c r="C188">
+        <v>2625</v>
+      </c>
+      <c r="D188" t="s">
+        <v>186</v>
+      </c>
+      <c r="E188" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189">
+        <v>5500143583</v>
+      </c>
+      <c r="C189">
+        <v>2625</v>
+      </c>
+      <c r="D189" t="s">
+        <v>186</v>
+      </c>
+      <c r="E189" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190">
+        <v>5500143583</v>
+      </c>
+      <c r="C190">
+        <v>2625</v>
+      </c>
+      <c r="D190" t="s">
+        <v>186</v>
+      </c>
+      <c r="E190" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191">
+        <v>5500143583</v>
+      </c>
+      <c r="C191">
+        <v>2625</v>
+      </c>
+      <c r="D191" t="s">
+        <v>186</v>
+      </c>
+      <c r="E191" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192">
+        <v>5500143583</v>
+      </c>
+      <c r="C192">
+        <v>2625</v>
+      </c>
+      <c r="D192" t="s">
+        <v>186</v>
+      </c>
+      <c r="E192" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193">
+        <v>5500143583</v>
+      </c>
+      <c r="C193">
+        <v>2625</v>
+      </c>
+      <c r="D193" t="s">
+        <v>186</v>
+      </c>
+      <c r="E193" t="s">
         <v>100</v>
       </c>
     </row>
